--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20202.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -82,46 +82,64 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>MARROQUIN</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>ANGEL</t>
   </si>
   <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>BAROJAS</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
     <t>GABRIEL JOSUE</t>
   </si>
   <si>
     <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
   </si>
   <si>
     <t>CHRISTIAN</t>
@@ -920,7 +938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -955,16 +973,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920087</v>
+        <v>20330051920072</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -978,16 +996,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920090</v>
+        <v>20330051920082</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1007,10 +1025,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1030,10 +1048,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1047,24 +1065,70 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920140</v>
+        <v>20330051920087</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920090</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
